--- a/content/post/2021-09-25-konsum-und-investieren/apple_data_table.xlsx
+++ b/content/post/2021-09-25-konsum-und-investieren/apple_data_table.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,27 +382,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Preis AAPL-Aktie (adjusted price)</t>
+          <t>Preis in $</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl AAPL-Aktien</t>
+          <t>Preis AAPL-Akt. in $ (adjusted)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>insg. Anzahl AAPL-Aktien</t>
+          <t>Anzahl AAPL-Akt.</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Wert AAPL-Portfolio</t>
+          <t>insg. Anzahl AAPL-Akt.</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>insg. investiert</t>
+          <t>Wert AAPL-Portf. in $</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>insg. invest. in $</t>
         </is>
       </c>
     </row>
@@ -419,19 +424,22 @@
         <v>250</v>
       </c>
       <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
         <v>1.9</v>
       </c>
-      <c r="E2">
-        <v>130.1</v>
-      </c>
       <c r="F2">
-        <v>130.1</v>
+        <v>156.2</v>
       </c>
       <c r="G2">
-        <v>250</v>
+        <v>156.2</v>
       </c>
       <c r="H2">
-        <v>250</v>
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -447,19 +455,22 @@
         <v>250</v>
       </c>
       <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
         <v>5.5</v>
       </c>
-      <c r="E3">
-        <v>45.1</v>
-      </c>
       <c r="F3">
-        <v>175.2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G3">
-        <v>971.71</v>
+        <v>221.1</v>
       </c>
       <c r="H3">
-        <v>500</v>
+        <v>1226.05</v>
+      </c>
+      <c r="I3">
+        <v>660</v>
       </c>
     </row>
     <row r="4">
@@ -475,19 +486,22 @@
         <v>1000</v>
       </c>
       <c r="D4">
+        <v>1250</v>
+      </c>
+      <c r="E4">
         <v>7.7</v>
       </c>
-      <c r="E4">
-        <v>130.3</v>
-      </c>
       <c r="F4">
-        <v>305.5</v>
+        <v>162.8</v>
       </c>
       <c r="G4">
-        <v>2344.95</v>
+        <v>383.9</v>
       </c>
       <c r="H4">
-        <v>1500</v>
+        <v>2946.99</v>
+      </c>
+      <c r="I4">
+        <v>1910</v>
       </c>
     </row>
     <row r="5">
@@ -503,19 +517,22 @@
         <v>650</v>
       </c>
       <c r="D5">
+        <v>900</v>
+      </c>
+      <c r="E5">
         <v>11.5</v>
       </c>
-      <c r="E5">
-        <v>56.6</v>
-      </c>
       <c r="F5">
-        <v>362.1</v>
+        <v>78.3</v>
       </c>
       <c r="G5">
-        <v>4159.04</v>
+        <v>462.3</v>
       </c>
       <c r="H5">
-        <v>2150</v>
+        <v>5309.94</v>
+      </c>
+      <c r="I5">
+        <v>2810</v>
       </c>
     </row>
     <row r="6">
@@ -531,19 +548,22 @@
         <v>350</v>
       </c>
       <c r="D6">
+        <v>450</v>
+      </c>
+      <c r="E6">
         <v>18.4</v>
       </c>
-      <c r="E6">
-        <v>19.1</v>
-      </c>
       <c r="F6">
-        <v>381.1</v>
+        <v>24.5</v>
       </c>
       <c r="G6">
-        <v>7001.59</v>
+        <v>486.7</v>
       </c>
       <c r="H6">
-        <v>2500</v>
+        <v>8942.24</v>
+      </c>
+      <c r="I6">
+        <v>3260</v>
       </c>
     </row>
     <row r="7">
@@ -559,19 +579,22 @@
         <v>200</v>
       </c>
       <c r="D7">
+        <v>220</v>
+      </c>
+      <c r="E7">
         <v>27.8</v>
       </c>
-      <c r="E7">
-        <v>7.2</v>
-      </c>
       <c r="F7">
-        <v>388.3</v>
+        <v>7.9</v>
       </c>
       <c r="G7">
-        <v>10801.51</v>
+        <v>494.7</v>
       </c>
       <c r="H7">
-        <v>2700</v>
+        <v>13759.95</v>
+      </c>
+      <c r="I7">
+        <v>3480</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +610,22 @@
         <v>500</v>
       </c>
       <c r="D8">
+        <v>540</v>
+      </c>
+      <c r="E8">
         <v>23.3</v>
       </c>
-      <c r="E8">
-        <v>21.5</v>
-      </c>
       <c r="F8">
-        <v>409.8</v>
+        <v>23.2</v>
       </c>
       <c r="G8">
-        <v>9548.040000000001</v>
+        <v>517.8</v>
       </c>
       <c r="H8">
-        <v>3200</v>
+        <v>12066.22</v>
+      </c>
+      <c r="I8">
+        <v>4020</v>
       </c>
     </row>
     <row r="9">
@@ -615,24 +641,27 @@
         <v>1400</v>
       </c>
       <c r="D9">
+        <v>1650</v>
+      </c>
+      <c r="E9">
         <v>39.1</v>
       </c>
-      <c r="E9">
-        <v>35.8</v>
-      </c>
       <c r="F9">
-        <v>445.5</v>
+        <v>42.2</v>
       </c>
       <c r="G9">
-        <v>17438.77</v>
+        <v>560</v>
       </c>
       <c r="H9">
-        <v>4600</v>
+        <v>21918.81</v>
+      </c>
+      <c r="I9">
+        <v>5670</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -643,19 +672,22 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>133.3</v>
+        <v>120</v>
       </c>
       <c r="E10">
-        <v>0.8</v>
+        <v>116</v>
       </c>
       <c r="F10">
-        <v>446.3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>59499.14</v>
+        <v>561</v>
       </c>
       <c r="H10">
-        <v>4700</v>
+        <v>65102.91</v>
+      </c>
+      <c r="I10">
+        <v>5790</v>
       </c>
     </row>
     <row r="11">
@@ -671,24 +703,27 @@
         <v>950</v>
       </c>
       <c r="D11">
+        <v>1150</v>
+      </c>
+      <c r="E11">
         <v>133.5</v>
       </c>
-      <c r="E11">
-        <v>7.1</v>
-      </c>
       <c r="F11">
-        <v>453.4</v>
+        <v>8.6</v>
       </c>
       <c r="G11">
-        <v>60534.02</v>
+        <v>569.6</v>
       </c>
       <c r="H11">
-        <v>5650</v>
+        <v>76053.42</v>
+      </c>
+      <c r="I11">
+        <v>6940</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -699,47 +734,22 @@
         <v>40</v>
       </c>
       <c r="D12">
-        <v>127.4</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>132.1</v>
       </c>
       <c r="F12">
-        <v>453.7</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>57794.6</v>
+        <v>570</v>
       </c>
       <c r="H12">
-        <v>5690</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Beats Flex</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>132.1</v>
-      </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
-      <c r="F13">
-        <v>454</v>
-      </c>
-      <c r="G13">
-        <v>59982.84</v>
-      </c>
-      <c r="H13">
-        <v>5730</v>
+        <v>75308.55</v>
+      </c>
+      <c r="I12">
+        <v>6990</v>
       </c>
     </row>
   </sheetData>
